--- a/data_excel/819.xlsx
+++ b/data_excel/819.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>爸爸</t>
   </si>
@@ -96,28 +96,33 @@
     <t>吃</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>數量</t>
+  </si>
+  <si>
+    <t>還</t>
+  </si>
+  <si>
+    <t>剩下</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>數量</t>
-  </si>
-  <si>
-    <t>還</t>
-  </si>
-  <si>
-    <t>剩下</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +150,14 @@
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -183,9 +196,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -491,7 +505,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C8" activeCellId="1" sqref="C14 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -553,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,7 +627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -633,15 +647,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -657,13 +671,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -685,9 +699,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -696,26 +710,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/819.xlsx
+++ b/data_excel/819.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>爸爸</t>
   </si>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +509,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" activeCellId="1" sqref="C14 C8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -714,8 +718,8 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>

--- a/data_excel/819.xlsx
+++ b/data_excel/819.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>爸爸</t>
   </si>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +513,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -655,8 +659,8 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
